--- a/Output/CreditInfo_05-05-2025.xlsx
+++ b/Output/CreditInfo_05-05-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Documents\UiPath\BilalGuler_ThesisProject\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963AC90-7A33-4EB4-A183-09F889CD59E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2AC368-5D5B-4B7C-9F8C-580F1601A81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{3ED4A5BA-2AF5-41FA-99D3-C1B0DEE0CC5C}"/>
   </bookViews>
